--- a/Time_Spent_2021.xlsx
+++ b/Time_Spent_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\Privat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19DC744-F36A-4509-902E-7E7CA16FB84E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD34110-14B5-463E-8E60-1E2BB1A8B5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0062599-7D5E-4686-8959-369F87C92B9E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sleep</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Sport</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>included eating</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,12 +105,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,6 +144,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -488,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FD6CC0-9723-4F69-886F-8286FF1D8FF9}">
-  <dimension ref="A2:AB367"/>
+  <dimension ref="A2:AE367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +516,7 @@
     <col min="2" max="25" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -575,7 +591,7 @@
       </c>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44197</v>
       </c>
@@ -587,101 +603,111 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
       <c r="AA3" s="3"/>
       <c r="AB3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44198</v>
       </c>
-      <c r="AA4" s="4"/>
+      <c r="AA4" s="11"/>
       <c r="AB4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44199</v>
       </c>
-      <c r="AA5" s="6"/>
+      <c r="AA5" s="5"/>
       <c r="AB5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44200</v>
       </c>
-      <c r="AA6" s="10"/>
+      <c r="AA6" s="9"/>
       <c r="AB6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44201</v>
       </c>
-      <c r="AA7" s="9"/>
+      <c r="AA7" s="8"/>
       <c r="AB7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44202</v>
       </c>
-      <c r="AA8" s="5"/>
+      <c r="AA8" s="4"/>
       <c r="AB8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44203</v>
       </c>
-      <c r="AA9" s="8"/>
+      <c r="AA9" s="7"/>
       <c r="AB9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44204</v>
       </c>
-      <c r="AA10" s="7"/>
+      <c r="AA10" s="6"/>
       <c r="AB10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44205</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AA11" s="10"/>
+      <c r="AB11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44206</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44207</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44208</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44209</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44210</v>
       </c>
